--- a/dataset/restaurants/train_test/train_test.xlsx
+++ b/dataset/restaurants/train_test/train_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smina\PycharmProject\surprising-aspects\dataset\restaurants\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smina\PycharmProject\surprising-aspects\dataset\restaurants\train_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222D23A-A71D-44FE-9471-EB8D61C29CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636570D-CAA2-4E71-AEE2-B0727428130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="564">
   <si>
     <t>review</t>
   </si>
@@ -520,9 +520,6 @@
     <t>old Mazda dealership</t>
   </si>
   <si>
-    <t>Mark the Balloon Guy, stuffed animal/puppets, old Mazda dealership, decorative balloon hats, sports theme, traditional wooden baseball stadium seats, interesting giant stuffed spider</t>
-  </si>
-  <si>
     <t>On the weekends kids can experience "Mark the Balloon Guy" at the restaurant.
 They have stuffed animal/puppets for sale at the front.</t>
   </si>
@@ -12826,6 +12823,12 @@
   </si>
   <si>
     <t>The restaurant is next to the old Mazda dealership.</t>
+  </si>
+  <si>
+    <t>Mark the Balloon Guy, stuffed animal/puppets, decorative balloon hats, sports theme, traditional wooden baseball stadium seats, interesting giant stuffed spider</t>
+  </si>
+  <si>
+    <t>film nights &amp; art exhibits/events, Latte Art Offs, wifi, community culture vibe</t>
   </si>
 </sst>
 </file>
@@ -13500,21 +13503,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="86.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.21875" style="1" customWidth="1"/>
@@ -13535,7 +13538,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
@@ -13555,7 +13558,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>8</v>
@@ -13576,7 +13579,7 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -13599,7 +13602,7 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>15</v>
@@ -13624,7 +13627,7 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>21</v>
@@ -13647,7 +13650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -13660,7 +13663,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -13675,7 +13678,7 @@
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>27</v>
@@ -13696,7 +13699,7 @@
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>29</v>
@@ -13717,7 +13720,7 @@
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>31</v>
@@ -13736,9 +13739,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>33</v>
@@ -13761,7 +13764,7 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>37</v>
@@ -13782,7 +13785,7 @@
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>39</v>
@@ -13803,7 +13806,7 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>41</v>
@@ -13824,7 +13827,7 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>43</v>
@@ -13845,7 +13848,7 @@
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>45</v>
@@ -13870,7 +13873,7 @@
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>51</v>
@@ -13886,16 +13889,16 @@
         <v>54</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>55</v>
@@ -13920,7 +13923,7 @@
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>61</v>
@@ -13941,7 +13944,7 @@
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>63</v>
@@ -13962,7 +13965,7 @@
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>65</v>
@@ -13987,7 +13990,7 @@
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>71</v>
@@ -14012,7 +14015,7 @@
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>77</v>
@@ -14031,9 +14034,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>79</v>
@@ -14049,16 +14052,16 @@
         <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>83</v>
@@ -14079,7 +14082,7 @@
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>85</v>
@@ -14100,7 +14103,7 @@
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>87</v>
@@ -14121,7 +14124,7 @@
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>89</v>
@@ -14142,7 +14145,7 @@
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>91</v>
@@ -14163,7 +14166,7 @@
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>93</v>
@@ -14184,7 +14187,7 @@
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>95</v>
@@ -14207,7 +14210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -14222,7 +14225,7 @@
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>102</v>
@@ -14243,7 +14246,7 @@
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>104</v>
@@ -14262,7 +14265,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>106</v>
       </c>
@@ -14277,7 +14280,7 @@
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>107</v>
@@ -14302,7 +14305,7 @@
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>113</v>
@@ -14321,7 +14324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>115</v>
       </c>
@@ -14336,7 +14339,7 @@
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>116</v>
@@ -14357,7 +14360,7 @@
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>118</v>
@@ -14378,17 +14381,17 @@
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>121</v>
@@ -14403,7 +14406,7 @@
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>124</v>
@@ -14429,7 +14432,7 @@
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>130</v>
@@ -14450,7 +14453,7 @@
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>132</v>
@@ -14471,7 +14474,7 @@
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>134</v>
@@ -14490,9 +14493,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
@@ -14509,7 +14512,7 @@
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>138</v>
@@ -14534,7 +14537,7 @@
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>144</v>
@@ -14546,296 +14549,296 @@
         <v>146</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="G48" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="G50" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="9"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F57" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="I59" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -14848,74 +14851,73 @@
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="F63" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -14928,208 +14930,208 @@
     </row>
     <row r="66" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="G66" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="1" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -15140,9 +15142,9 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -15153,9 +15155,9 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
     </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" s="1" customFormat="1" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -15166,9 +15168,9 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -15179,9 +15181,9 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -15192,9 +15194,9 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -15205,9 +15207,9 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" s="1" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -15218,9 +15220,9 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -15231,9 +15233,9 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="1:9" s="1" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" s="1" customFormat="1" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -15244,9 +15246,9 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -15257,9 +15259,9 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -15270,9 +15272,9 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -15283,9 +15285,9 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -15296,9 +15298,9 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="1:9" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" s="1" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -15309,9 +15311,9 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" s="1" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -15322,9 +15324,9 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" s="1" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -15335,9 +15337,9 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" s="1" customFormat="1" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -15348,9 +15350,9 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -15361,9 +15363,9 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -15374,9 +15376,9 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -15387,9 +15389,9 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" spans="1:9" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" s="1" customFormat="1" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -15400,9 +15402,9 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
     </row>
-    <row r="96" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -15413,9 +15415,9 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
     </row>
-    <row r="97" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -15426,9 +15428,9 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
     </row>
-    <row r="98" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -15439,9 +15441,9 @@
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
     </row>
-    <row r="99" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -15452,9 +15454,9 @@
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
     </row>
-    <row r="100" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -15465,9 +15467,9 @@
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
     </row>
-    <row r="101" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="1" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -15478,9 +15480,9 @@
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
     </row>
-    <row r="102" spans="1:9" s="1" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="1" customFormat="1" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -15491,9 +15493,9 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
     </row>
-    <row r="103" spans="1:9" s="1" customFormat="1" ht="288" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="1" customFormat="1" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -15504,9 +15506,9 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="6"/>
@@ -15517,9 +15519,9 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
     </row>
-    <row r="105" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="6"/>
@@ -15530,9 +15532,9 @@
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
     </row>
-    <row r="106" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="1" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="6"/>
@@ -15543,9 +15545,9 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
     </row>
-    <row r="107" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="6"/>
@@ -15556,9 +15558,9 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
     </row>
-    <row r="108" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="1" customFormat="1" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="6"/>
@@ -15569,9 +15571,9 @@
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
     </row>
-    <row r="109" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="6"/>
@@ -15584,49 +15586,49 @@
     </row>
     <row r="110" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F110" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="6"/>
@@ -15637,9 +15639,9 @@
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="6"/>
@@ -15650,9 +15652,9 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="6"/>
@@ -15663,9 +15665,9 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="1" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="6"/>
@@ -15676,9 +15678,9 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="6"/>
@@ -15689,28 +15691,28 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
     </row>
-    <row r="117" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="1" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
       <c r="F117" s="8"/>
       <c r="G117" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="1" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
@@ -15721,9 +15723,9 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="1" customFormat="1" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="6"/>
@@ -15736,28 +15738,28 @@
     </row>
     <row r="120" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="6"/>
@@ -15768,9 +15770,9 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
     </row>
-    <row r="122" spans="1:9" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="1" customFormat="1" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="6"/>
@@ -15781,9 +15783,9 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123" spans="1:9" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="1" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="6"/>
@@ -15794,26 +15796,26 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="1" customFormat="1" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="9"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="1:9" s="1" customFormat="1" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="I124" s="7"/>
-    </row>
-    <row r="125" spans="1:9" s="1" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="6"/>
@@ -15824,9 +15826,9 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
     </row>
-    <row r="126" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="1" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="6"/>
@@ -15837,9 +15839,9 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
     </row>
-    <row r="127" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="6"/>
@@ -15850,9 +15852,9 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
     </row>
-    <row r="128" spans="1:9" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" s="1" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
@@ -15863,9 +15865,9 @@
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="1:9" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="1" customFormat="1" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="6"/>
@@ -15876,9 +15878,9 @@
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="1" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
@@ -15889,9 +15891,9 @@
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="1" customFormat="1" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="6"/>
@@ -15902,9 +15904,9 @@
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
     </row>
-    <row r="132" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="6"/>
@@ -15915,9 +15917,9 @@
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
     </row>
-    <row r="133" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="6"/>
@@ -15928,9 +15930,9 @@
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
     </row>
-    <row r="134" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
@@ -15943,736 +15945,736 @@
     </row>
     <row r="135" spans="1:9" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A135" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
       <c r="I135" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
       <c r="I136" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A137" s="16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" s="1" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="16" t="s">
+      <c r="B137" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A140" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A141" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="C141" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A143" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
       <c r="I143" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A144" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="E144" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="F144" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G144" s="7"/>
       <c r="H144" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I144" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F145" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
       <c r="I145" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="1" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A146" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
       <c r="I146" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
       <c r="I147" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>336</v>
       </c>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
       <c r="I148" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="B149" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>338</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>338</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>339</v>
       </c>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
       <c r="I149" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A150" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7" t="s">
-        <v>341</v>
+        <v>563</v>
       </c>
       <c r="F150" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F151" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>348</v>
       </c>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
       <c r="I151" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A152" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="C152" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="G152" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F153" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A154" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F154" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="1" customFormat="1" ht="360" x14ac:dyDescent="0.3">
       <c r="A155" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F155" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
       <c r="I155" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A156" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="C156" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F156" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="G156" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H156" s="7"/>
       <c r="I156" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="1" customFormat="1" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A157" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H157" s="7"/>
       <c r="I157" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="C158" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F158" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="G158" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H158" s="7"/>
       <c r="I158" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F159" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="F159" s="9" t="s">
-        <v>383</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
       <c r="I159" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A160" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H160" s="7"/>
       <c r="I160" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A161" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>393</v>
       </c>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
       <c r="I161" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A162" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
       <c r="I162" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A163" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F163" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A164" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="C164" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F164" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H164" s="7"/>
       <c r="I164" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="1" customFormat="1" ht="288" x14ac:dyDescent="0.3">
       <c r="A165" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
       <c r="I165" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F166" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
       <c r="I166" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A167" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F167" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="1" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -16683,9 +16685,9 @@
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" s="1" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -16696,9 +16698,9 @@
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" s="1" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -16709,9 +16711,9 @@
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -16722,9 +16724,9 @@
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="1" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -16735,9 +16737,9 @@
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="1" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -16748,9 +16750,9 @@
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="1" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -16761,9 +16763,9 @@
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="1" customFormat="1" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -16774,9 +16776,9 @@
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="1" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -16787,9 +16789,9 @@
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -16800,9 +16802,9 @@
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -16813,9 +16815,9 @@
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" s="1" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="1" customFormat="1" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -16828,53 +16830,53 @@
     </row>
     <row r="180" spans="1:9" s="1" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H180" s="6"/>
       <c r="I180" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F181" s="8"/>
       <c r="G181" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H181" s="6"/>
       <c r="I181" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="1" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -16887,28 +16889,28 @@
     </row>
     <row r="183" spans="1:9" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B183" s="6"/>
       <c r="C183" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
       <c r="I183" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="1" customFormat="1" ht="388.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="7" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="1" customFormat="1" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A184" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -16919,9 +16921,9 @@
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -16932,9 +16934,9 @@
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" s="1" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="1" customFormat="1" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -16945,9 +16947,9 @@
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -16958,9 +16960,9 @@
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -16971,9 +16973,9 @@
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -16984,9 +16986,9 @@
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -16999,28 +17001,28 @@
     </row>
     <row r="191" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F191" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="F191" s="8" t="s">
-        <v>438</v>
       </c>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="1" customFormat="1" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="7" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -17031,9 +17033,9 @@
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" s="1" customFormat="1" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -17046,49 +17048,49 @@
     </row>
     <row r="194" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D194" s="6"/>
       <c r="E194" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F194" s="8"/>
       <c r="G194" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H194" s="6"/>
       <c r="I194" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="195" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B195" s="6"/>
       <c r="C195" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D195" s="6"/>
       <c r="E195" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F195" s="8"/>
       <c r="G195" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H195" s="6"/>
       <c r="I195" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="1" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="7" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -17099,9 +17101,9 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -17112,9 +17114,9 @@
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -17127,28 +17129,28 @@
     </row>
     <row r="199" spans="1:9" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A199" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F199" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
       <c r="I199" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -17159,9 +17161,9 @@
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -17257,7 +17259,13 @@
       <c r="A229" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I201" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I201" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>